--- a/Calib_Summary/Final_CVM_Survey_Summary.xlsx
+++ b/Calib_Summary/Final_CVM_Survey_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camsys.sharepoint.com/sites/SANDAGCommercialVehicleHeavyTruckModelUpdate/Shared Documents/_Shared_CSTeam/Task05_Estimation_Calibration/Summarization/Final Summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgliebe\Documents\Projects\SANDAG\Final Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D2BE97EE8983CA3CE80A672CD66B0DB1449D7B72" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E988C6DF-CF9B-4FC7-9858-E425A5B94F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38925" yWindow="3795" windowWidth="32400" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28155" yWindow="690" windowWidth="28155" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SurveyData" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:EP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="EO4" sqref="EO4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1123,7 +1125,7 @@
         <v>59</v>
       </c>
       <c r="EP4">
-        <v>1810.5372500000001</v>
+        <v>587.78278</v>
       </c>
     </row>
     <row r="5" spans="1:146" x14ac:dyDescent="0.35">
@@ -1338,7 +1340,7 @@
         <v>60</v>
       </c>
       <c r="EP5">
-        <v>130.37028000000001</v>
+        <v>59.037460000000003</v>
       </c>
     </row>
     <row r="6" spans="1:146" x14ac:dyDescent="0.35">
@@ -1553,7 +1555,7 @@
         <v>61</v>
       </c>
       <c r="EP6">
-        <v>15197.66505</v>
+        <v>363.34413000000001</v>
       </c>
     </row>
     <row r="7" spans="1:146" x14ac:dyDescent="0.35">
@@ -1747,7 +1749,7 @@
         <v>62</v>
       </c>
       <c r="EP7">
-        <v>24848.498080000001</v>
+        <v>2992.2939500000002</v>
       </c>
     </row>
     <row r="8" spans="1:146" x14ac:dyDescent="0.35">
@@ -1923,7 +1925,7 @@
         <v>63</v>
       </c>
       <c r="EP8">
-        <v>18945.441439999999</v>
+        <v>1016.8178</v>
       </c>
     </row>
     <row r="9" spans="1:146" x14ac:dyDescent="0.35">
@@ -3214,28 +3216,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="608512b1-9b7f-4b66-9287-846c132e154a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5D9AA5C7921F342991554F4D6B3A08A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0206a618f35c0824d2fb24aead71b636">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="608512b1-9b7f-4b66-9287-846c132e154a" xmlns:ns3="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92f8997cce93524906d692cae9c8e282" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3475,27 +3455,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8F2ABD-9350-47DA-9BC6-1576F6C21C01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="608512b1-9b7f-4b66-9287-846c132e154a"/>
-    <ds:schemaRef ds:uri="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D385577-EB08-4CFA-A0BA-040B7662D0F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="608512b1-9b7f-4b66-9287-846c132e154a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{776FE7E3-E10A-4ACF-9FF4-5AEA7F4D4CB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3513,4 +3495,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D385577-EB08-4CFA-A0BA-040B7662D0F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8F2ABD-9350-47DA-9BC6-1576F6C21C01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="608512b1-9b7f-4b66-9287-846c132e154a"/>
+    <ds:schemaRef ds:uri="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>